--- a/data/output/FV2504_FV2410/UTILMD/55196.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55196.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6724" uniqueCount="478">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6745" uniqueCount="478">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1566,6 +1566,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U300" totalsRowShown="0">
+  <autoFilter ref="A1:U300"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1855,7 +1885,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -16366,5 +16399,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55196.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55196.xlsx
@@ -2893,7 +2893,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="2"/>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N16" s="2"/>
@@ -3823,7 +3823,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N20" s="2"/>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -4329,7 +4329,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -4529,7 +4529,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -5417,7 +5417,7 @@
         <v>404</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -5685,7 +5685,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -5885,7 +5885,7 @@
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -6081,7 +6081,7 @@
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -6281,7 +6281,7 @@
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -6427,7 +6427,7 @@
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -6583,7 +6583,7 @@
         <v>407</v>
       </c>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -6761,54 +6761,54 @@
       <c r="V77" s="5"/>
     </row>
     <row r="78" spans="1:22">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E78" s="5"/>
+      <c r="E78" s="2"/>
       <c r="F78" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5" t="s">
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K78" s="5" t="s">
+      <c r="K78" s="2" t="s">
         <v>408</v>
       </c>
       <c r="L78" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="M78" s="5" t="s">
+      <c r="M78" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N78" s="5" t="s">
+      <c r="N78" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O78" s="5" t="s">
+      <c r="O78" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P78" s="5"/>
+      <c r="P78" s="2"/>
       <c r="Q78" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
-      <c r="U78" s="5" t="s">
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V78" s="5" t="s">
+      <c r="V78" s="2" t="s">
         <v>408</v>
       </c>
     </row>
@@ -6993,54 +6993,54 @@
       <c r="V81" s="5"/>
     </row>
     <row r="82" spans="1:22">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E82" s="5"/>
+      <c r="E82" s="2"/>
       <c r="F82" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5" t="s">
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="K82" s="5" t="s">
+      <c r="K82" s="2" t="s">
         <v>410</v>
       </c>
       <c r="L82" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="M82" s="5" t="s">
+      <c r="M82" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N82" s="5" t="s">
+      <c r="N82" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O82" s="5" t="s">
+      <c r="O82" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P82" s="5"/>
+      <c r="P82" s="2"/>
       <c r="Q82" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-      <c r="U82" s="5" t="s">
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="V82" s="5" t="s">
+      <c r="V82" s="2" t="s">
         <v>410</v>
       </c>
     </row>
@@ -7225,26 +7225,26 @@
       <c r="V85" s="5"/>
     </row>
     <row r="86" spans="1:22">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E86" s="5"/>
+      <c r="E86" s="2"/>
       <c r="F86" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5" t="s">
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2" t="s">
         <v>375</v>
       </c>
       <c r="K86" s="6" t="s">
@@ -7253,23 +7253,23 @@
       <c r="L86" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="M86" s="5" t="s">
+      <c r="M86" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N86" s="5" t="s">
+      <c r="N86" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O86" s="5" t="s">
+      <c r="O86" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="P86" s="5"/>
+      <c r="P86" s="2"/>
       <c r="Q86" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
-      <c r="T86" s="5"/>
-      <c r="U86" s="5" t="s">
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2" t="s">
         <v>375</v>
       </c>
       <c r="V86" s="6" t="s">
@@ -7529,7 +7529,7 @@
         <v>412</v>
       </c>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -7739,7 +7739,7 @@
         <v>414</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -7947,7 +7947,7 @@
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -8151,7 +8151,7 @@
         <v>415</v>
       </c>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -8299,7 +8299,7 @@
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -8517,7 +8517,7 @@
         <v>416</v>
       </c>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -8733,7 +8733,7 @@
         <v>417</v>
       </c>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -8861,52 +8861,52 @@
       <c r="V116" s="5"/>
     </row>
     <row r="117" spans="1:22">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C117" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D117" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E117" s="5"/>
+      <c r="E117" s="2"/>
       <c r="F117" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
-      <c r="J117" s="5" t="s">
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K117" s="5"/>
+      <c r="K117" s="2"/>
       <c r="L117" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="M117" s="5" t="s">
+      <c r="M117" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N117" s="5" t="s">
+      <c r="N117" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O117" s="5" t="s">
+      <c r="O117" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P117" s="5"/>
+      <c r="P117" s="2"/>
       <c r="Q117" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="R117" s="5"/>
-      <c r="S117" s="5"/>
-      <c r="T117" s="5"/>
-      <c r="U117" s="5" t="s">
+      <c r="R117" s="2"/>
+      <c r="S117" s="2"/>
+      <c r="T117" s="2"/>
+      <c r="U117" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V117" s="5"/>
+      <c r="V117" s="2"/>
     </row>
     <row r="118" spans="1:22">
       <c r="A118" s="5" t="s">
@@ -9051,7 +9051,7 @@
         <v>418</v>
       </c>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -9319,7 +9319,7 @@
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -9585,7 +9585,7 @@
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="4"/>
-      <c r="M130" s="2" t="s">
+      <c r="M130" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N130" s="2" t="s">
@@ -9845,7 +9845,7 @@
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -9971,54 +9971,54 @@
       <c r="V137" s="5"/>
     </row>
     <row r="138" spans="1:22">
-      <c r="A138" s="5" t="s">
+      <c r="A138" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B138" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C138" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D138" s="5" t="s">
+      <c r="C138" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E138" s="5"/>
+      <c r="E138" s="2"/>
       <c r="F138" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="G138" s="5"/>
-      <c r="H138" s="5"/>
-      <c r="I138" s="5"/>
-      <c r="J138" s="5" t="s">
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K138" s="5" t="s">
+      <c r="K138" s="2" t="s">
         <v>421</v>
       </c>
       <c r="L138" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="M138" s="5" t="s">
+      <c r="M138" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N138" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O138" s="5" t="s">
+      <c r="N138" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O138" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P138" s="5"/>
+      <c r="P138" s="2"/>
       <c r="Q138" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="R138" s="5"/>
-      <c r="S138" s="5"/>
-      <c r="T138" s="5"/>
-      <c r="U138" s="5" t="s">
+      <c r="R138" s="2"/>
+      <c r="S138" s="2"/>
+      <c r="T138" s="2"/>
+      <c r="U138" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="V138" s="5" t="s">
+      <c r="V138" s="2" t="s">
         <v>421</v>
       </c>
     </row>
@@ -10143,52 +10143,52 @@
       </c>
     </row>
     <row r="141" spans="1:22">
-      <c r="A141" s="5" t="s">
+      <c r="A141" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C141" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D141" s="5" t="s">
+      <c r="C141" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E141" s="5"/>
+      <c r="E141" s="2"/>
       <c r="F141" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="G141" s="5"/>
-      <c r="H141" s="5"/>
-      <c r="I141" s="5"/>
-      <c r="J141" s="5" t="s">
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K141" s="5"/>
+      <c r="K141" s="2"/>
       <c r="L141" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="M141" s="5" t="s">
+      <c r="M141" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="N141" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O141" s="5" t="s">
+      <c r="N141" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O141" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P141" s="5"/>
+      <c r="P141" s="2"/>
       <c r="Q141" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="R141" s="5"/>
-      <c r="S141" s="5"/>
-      <c r="T141" s="5"/>
-      <c r="U141" s="5" t="s">
+      <c r="R141" s="2"/>
+      <c r="S141" s="2"/>
+      <c r="T141" s="2"/>
+      <c r="U141" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V141" s="5"/>
+      <c r="V141" s="2"/>
     </row>
     <row r="142" spans="1:22">
       <c r="A142" s="5" t="s">
@@ -10327,7 +10327,7 @@
       </c>
       <c r="K144" s="2"/>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -10531,7 +10531,7 @@
         <v>423</v>
       </c>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -10735,7 +10735,7 @@
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -10939,7 +10939,7 @@
         <v>412</v>
       </c>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -11251,7 +11251,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -11457,7 +11457,7 @@
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -11637,26 +11637,26 @@
       <c r="V169" s="5"/>
     </row>
     <row r="170" spans="1:22">
-      <c r="A170" s="5" t="s">
+      <c r="A170" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B170" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C170" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D170" s="5" t="s">
+      <c r="C170" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E170" s="5"/>
+      <c r="E170" s="2"/>
       <c r="F170" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="5"/>
-      <c r="J170" s="5" t="s">
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+      <c r="J170" s="2" t="s">
         <v>389</v>
       </c>
       <c r="K170" s="6" t="s">
@@ -11665,23 +11665,23 @@
       <c r="L170" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="M170" s="5" t="s">
+      <c r="M170" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="N170" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O170" s="5" t="s">
+      <c r="N170" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O170" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P170" s="5"/>
+      <c r="P170" s="2"/>
       <c r="Q170" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="R170" s="5"/>
-      <c r="S170" s="5"/>
-      <c r="T170" s="5"/>
-      <c r="U170" s="5" t="s">
+      <c r="R170" s="2"/>
+      <c r="S170" s="2"/>
+      <c r="T170" s="2"/>
+      <c r="U170" s="2" t="s">
         <v>389</v>
       </c>
       <c r="V170" s="6" t="s">
@@ -11771,7 +11771,7 @@
         <v>425</v>
       </c>
       <c r="L172" s="4"/>
-      <c r="M172" s="2" t="s">
+      <c r="M172" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N172" s="2" t="s">
@@ -11899,52 +11899,52 @@
       <c r="V174" s="5"/>
     </row>
     <row r="175" spans="1:22">
-      <c r="A175" s="5" t="s">
+      <c r="A175" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="B175" s="5" t="s">
+      <c r="B175" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C175" s="5" t="s">
+      <c r="C175" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D175" s="5" t="s">
+      <c r="D175" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E175" s="5"/>
+      <c r="E175" s="2"/>
       <c r="F175" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="G175" s="5"/>
-      <c r="H175" s="5"/>
-      <c r="I175" s="5"/>
-      <c r="J175" s="5" t="s">
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="2"/>
+      <c r="J175" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K175" s="5"/>
+      <c r="K175" s="2"/>
       <c r="L175" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="M175" s="5" t="s">
+      <c r="M175" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N175" s="5" t="s">
+      <c r="N175" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O175" s="5" t="s">
+      <c r="O175" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P175" s="5"/>
+      <c r="P175" s="2"/>
       <c r="Q175" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="R175" s="5"/>
-      <c r="S175" s="5"/>
-      <c r="T175" s="5"/>
-      <c r="U175" s="5" t="s">
+      <c r="R175" s="2"/>
+      <c r="S175" s="2"/>
+      <c r="T175" s="2"/>
+      <c r="U175" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V175" s="5"/>
+      <c r="V175" s="2"/>
     </row>
     <row r="176" spans="1:22">
       <c r="A176" s="5" t="s">
@@ -12089,7 +12089,7 @@
         <v>426</v>
       </c>
       <c r="L178" s="4"/>
-      <c r="M178" s="2" t="s">
+      <c r="M178" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N178" s="2" t="s">
@@ -12359,7 +12359,7 @@
         <v>426</v>
       </c>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -12629,7 +12629,7 @@
         <v>426</v>
       </c>
       <c r="L188" s="4"/>
-      <c r="M188" s="2" t="s">
+      <c r="M188" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N188" s="2" t="s">
@@ -12835,7 +12835,7 @@
         <v>426</v>
       </c>
       <c r="L192" s="4"/>
-      <c r="M192" s="2" t="s">
+      <c r="M192" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N192" s="2" t="s">
@@ -13041,7 +13041,7 @@
         <v>426</v>
       </c>
       <c r="L196" s="4"/>
-      <c r="M196" s="2" t="s">
+      <c r="M196" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N196" s="2" t="s">
@@ -13247,7 +13247,7 @@
         <v>426</v>
       </c>
       <c r="L200" s="4"/>
-      <c r="M200" s="2" t="s">
+      <c r="M200" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N200" s="2" t="s">
@@ -13561,7 +13561,7 @@
         <v>426</v>
       </c>
       <c r="L206" s="4"/>
-      <c r="M206" s="2" t="s">
+      <c r="M206" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N206" s="2" t="s">
@@ -13819,7 +13819,7 @@
         <v>426</v>
       </c>
       <c r="L211" s="4"/>
-      <c r="M211" s="2" t="s">
+      <c r="M211" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N211" s="2" t="s">
@@ -13997,26 +13997,26 @@
       <c r="V214" s="5"/>
     </row>
     <row r="215" spans="1:22">
-      <c r="A215" s="5" t="s">
+      <c r="A215" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="B215" s="5" t="s">
+      <c r="B215" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C215" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D215" s="5" t="s">
+      <c r="C215" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D215" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E215" s="5"/>
-      <c r="F215" s="5" t="s">
+      <c r="E215" s="2"/>
+      <c r="F215" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="G215" s="5"/>
-      <c r="H215" s="5"/>
-      <c r="I215" s="5"/>
-      <c r="J215" s="5" t="s">
+      <c r="G215" s="2"/>
+      <c r="H215" s="2"/>
+      <c r="I215" s="2"/>
+      <c r="J215" s="2" t="s">
         <v>389</v>
       </c>
       <c r="K215" s="6" t="s">
@@ -14025,23 +14025,23 @@
       <c r="L215" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="M215" s="5" t="s">
+      <c r="M215" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="N215" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O215" s="5" t="s">
+      <c r="N215" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O215" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P215" s="5"/>
-      <c r="Q215" s="5" t="s">
+      <c r="P215" s="2"/>
+      <c r="Q215" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="R215" s="5"/>
-      <c r="S215" s="5"/>
-      <c r="T215" s="5"/>
-      <c r="U215" s="5" t="s">
+      <c r="R215" s="2"/>
+      <c r="S215" s="2"/>
+      <c r="T215" s="2"/>
+      <c r="U215" s="2" t="s">
         <v>389</v>
       </c>
       <c r="V215" s="6" t="s">
@@ -14129,7 +14129,7 @@
         <v>427</v>
       </c>
       <c r="L217" s="4"/>
-      <c r="M217" s="2" t="s">
+      <c r="M217" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N217" s="2" t="s">
@@ -14257,52 +14257,52 @@
       <c r="V219" s="5"/>
     </row>
     <row r="220" spans="1:22">
-      <c r="A220" s="5" t="s">
+      <c r="A220" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="B220" s="5" t="s">
+      <c r="B220" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C220" s="5" t="s">
+      <c r="C220" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D220" s="5" t="s">
+      <c r="D220" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E220" s="5"/>
+      <c r="E220" s="2"/>
       <c r="F220" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="G220" s="5"/>
-      <c r="H220" s="5"/>
-      <c r="I220" s="5"/>
-      <c r="J220" s="5" t="s">
+      <c r="G220" s="2"/>
+      <c r="H220" s="2"/>
+      <c r="I220" s="2"/>
+      <c r="J220" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K220" s="5"/>
+      <c r="K220" s="2"/>
       <c r="L220" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="M220" s="5" t="s">
+      <c r="M220" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N220" s="5" t="s">
+      <c r="N220" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O220" s="5" t="s">
+      <c r="O220" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P220" s="5"/>
+      <c r="P220" s="2"/>
       <c r="Q220" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="R220" s="5"/>
-      <c r="S220" s="5"/>
-      <c r="T220" s="5"/>
-      <c r="U220" s="5" t="s">
+      <c r="R220" s="2"/>
+      <c r="S220" s="2"/>
+      <c r="T220" s="2"/>
+      <c r="U220" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V220" s="5"/>
+      <c r="V220" s="2"/>
     </row>
     <row r="221" spans="1:22">
       <c r="A221" s="5" t="s">
@@ -14425,52 +14425,52 @@
       </c>
     </row>
     <row r="223" spans="1:22">
-      <c r="A223" s="5" t="s">
+      <c r="A223" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="B223" s="5" t="s">
+      <c r="B223" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C223" s="5" t="s">
+      <c r="C223" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D223" s="5" t="s">
+      <c r="D223" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E223" s="5"/>
+      <c r="E223" s="2"/>
       <c r="F223" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="G223" s="5"/>
-      <c r="H223" s="5"/>
-      <c r="I223" s="5"/>
-      <c r="J223" s="5" t="s">
+      <c r="G223" s="2"/>
+      <c r="H223" s="2"/>
+      <c r="I223" s="2"/>
+      <c r="J223" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K223" s="5"/>
+      <c r="K223" s="2"/>
       <c r="L223" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="M223" s="5" t="s">
+      <c r="M223" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="N223" s="5" t="s">
+      <c r="N223" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O223" s="5" t="s">
+      <c r="O223" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P223" s="5"/>
+      <c r="P223" s="2"/>
       <c r="Q223" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="R223" s="5"/>
-      <c r="S223" s="5"/>
-      <c r="T223" s="5"/>
-      <c r="U223" s="5" t="s">
+      <c r="R223" s="2"/>
+      <c r="S223" s="2"/>
+      <c r="T223" s="2"/>
+      <c r="U223" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V223" s="5"/>
+      <c r="V223" s="2"/>
     </row>
     <row r="224" spans="1:22">
       <c r="A224" s="5" t="s">
@@ -14675,7 +14675,7 @@
         <v>426</v>
       </c>
       <c r="L227" s="4"/>
-      <c r="M227" s="2" t="s">
+      <c r="M227" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N227" s="2" t="s">
@@ -14803,52 +14803,52 @@
       <c r="V229" s="5"/>
     </row>
     <row r="230" spans="1:22">
-      <c r="A230" s="5" t="s">
+      <c r="A230" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="B230" s="5" t="s">
+      <c r="B230" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C230" s="5" t="s">
+      <c r="C230" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D230" s="5" t="s">
+      <c r="D230" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E230" s="5"/>
+      <c r="E230" s="2"/>
       <c r="F230" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="G230" s="5"/>
-      <c r="H230" s="5"/>
-      <c r="I230" s="5"/>
-      <c r="J230" s="5" t="s">
+      <c r="G230" s="2"/>
+      <c r="H230" s="2"/>
+      <c r="I230" s="2"/>
+      <c r="J230" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K230" s="5"/>
+      <c r="K230" s="2"/>
       <c r="L230" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="M230" s="5" t="s">
+      <c r="M230" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="N230" s="5" t="s">
+      <c r="N230" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O230" s="5" t="s">
+      <c r="O230" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P230" s="5"/>
+      <c r="P230" s="2"/>
       <c r="Q230" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="R230" s="5"/>
-      <c r="S230" s="5"/>
-      <c r="T230" s="5"/>
-      <c r="U230" s="5" t="s">
+      <c r="R230" s="2"/>
+      <c r="S230" s="2"/>
+      <c r="T230" s="2"/>
+      <c r="U230" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V230" s="5"/>
+      <c r="V230" s="2"/>
     </row>
     <row r="231" spans="1:22">
       <c r="A231" s="5" t="s">
@@ -15049,7 +15049,7 @@
         <v>429</v>
       </c>
       <c r="L234" s="4"/>
-      <c r="M234" s="2" t="s">
+      <c r="M234" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N234" s="2" t="s">
@@ -15177,52 +15177,52 @@
       <c r="V236" s="5"/>
     </row>
     <row r="237" spans="1:22">
-      <c r="A237" s="5" t="s">
+      <c r="A237" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="B237" s="5" t="s">
+      <c r="B237" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C237" s="5" t="s">
+      <c r="C237" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D237" s="5" t="s">
+      <c r="D237" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E237" s="5"/>
+      <c r="E237" s="2"/>
       <c r="F237" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="G237" s="5"/>
-      <c r="H237" s="5"/>
-      <c r="I237" s="5"/>
-      <c r="J237" s="5" t="s">
+      <c r="G237" s="2"/>
+      <c r="H237" s="2"/>
+      <c r="I237" s="2"/>
+      <c r="J237" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K237" s="5"/>
+      <c r="K237" s="2"/>
       <c r="L237" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="M237" s="5" t="s">
+      <c r="M237" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="N237" s="5" t="s">
+      <c r="N237" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O237" s="5" t="s">
+      <c r="O237" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P237" s="5"/>
+      <c r="P237" s="2"/>
       <c r="Q237" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="R237" s="5"/>
-      <c r="S237" s="5"/>
-      <c r="T237" s="5"/>
-      <c r="U237" s="5" t="s">
+      <c r="R237" s="2"/>
+      <c r="S237" s="2"/>
+      <c r="T237" s="2"/>
+      <c r="U237" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V237" s="5"/>
+      <c r="V237" s="2"/>
     </row>
     <row r="238" spans="1:22">
       <c r="A238" s="5" t="s">
@@ -15365,7 +15365,7 @@
       </c>
       <c r="K240" s="2"/>
       <c r="L240" s="4"/>
-      <c r="M240" s="2" t="s">
+      <c r="M240" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N240" s="2" t="s">
@@ -15491,52 +15491,52 @@
       <c r="V242" s="5"/>
     </row>
     <row r="243" spans="1:22">
-      <c r="A243" s="5" t="s">
+      <c r="A243" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="B243" s="5" t="s">
+      <c r="B243" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C243" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D243" s="5" t="s">
+      <c r="C243" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D243" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E243" s="5"/>
+      <c r="E243" s="2"/>
       <c r="F243" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="G243" s="5"/>
-      <c r="H243" s="5"/>
-      <c r="I243" s="5"/>
-      <c r="J243" s="5" t="s">
+      <c r="G243" s="2"/>
+      <c r="H243" s="2"/>
+      <c r="I243" s="2"/>
+      <c r="J243" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K243" s="5"/>
+      <c r="K243" s="2"/>
       <c r="L243" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="M243" s="5" t="s">
+      <c r="M243" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N243" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O243" s="5" t="s">
+      <c r="N243" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O243" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P243" s="5"/>
+      <c r="P243" s="2"/>
       <c r="Q243" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="R243" s="5"/>
-      <c r="S243" s="5"/>
-      <c r="T243" s="5"/>
-      <c r="U243" s="5" t="s">
+      <c r="R243" s="2"/>
+      <c r="S243" s="2"/>
+      <c r="T243" s="2"/>
+      <c r="U243" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V243" s="5"/>
+      <c r="V243" s="2"/>
     </row>
     <row r="244" spans="1:22">
       <c r="A244" s="5" t="s">
@@ -15677,7 +15677,7 @@
         <v>430</v>
       </c>
       <c r="L246" s="4"/>
-      <c r="M246" s="2" t="s">
+      <c r="M246" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N246" s="2" t="s">
@@ -15883,7 +15883,7 @@
         <v>426</v>
       </c>
       <c r="L250" s="4"/>
-      <c r="M250" s="2" t="s">
+      <c r="M250" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N250" s="2" t="s">
@@ -16031,7 +16031,7 @@
       </c>
       <c r="K253" s="2"/>
       <c r="L253" s="4"/>
-      <c r="M253" s="2" t="s">
+      <c r="M253" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N253" s="2" t="s">
@@ -16235,7 +16235,7 @@
         <v>431</v>
       </c>
       <c r="L257" s="4"/>
-      <c r="M257" s="2" t="s">
+      <c r="M257" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N257" s="2" t="s">
@@ -16363,52 +16363,52 @@
       <c r="V259" s="5"/>
     </row>
     <row r="260" spans="1:22">
-      <c r="A260" s="5" t="s">
+      <c r="A260" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="B260" s="5" t="s">
+      <c r="B260" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C260" s="5" t="s">
+      <c r="C260" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D260" s="5" t="s">
+      <c r="D260" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E260" s="5"/>
+      <c r="E260" s="2"/>
       <c r="F260" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="G260" s="5"/>
-      <c r="H260" s="5"/>
-      <c r="I260" s="5"/>
-      <c r="J260" s="5" t="s">
+      <c r="G260" s="2"/>
+      <c r="H260" s="2"/>
+      <c r="I260" s="2"/>
+      <c r="J260" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K260" s="5"/>
+      <c r="K260" s="2"/>
       <c r="L260" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="M260" s="5" t="s">
+      <c r="M260" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="N260" s="5" t="s">
+      <c r="N260" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O260" s="5" t="s">
+      <c r="O260" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P260" s="5"/>
+      <c r="P260" s="2"/>
       <c r="Q260" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="R260" s="5"/>
-      <c r="S260" s="5"/>
-      <c r="T260" s="5"/>
-      <c r="U260" s="5" t="s">
+      <c r="R260" s="2"/>
+      <c r="S260" s="2"/>
+      <c r="T260" s="2"/>
+      <c r="U260" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V260" s="5"/>
+      <c r="V260" s="2"/>
     </row>
     <row r="261" spans="1:22">
       <c r="A261" s="5" t="s">
@@ -16531,52 +16531,52 @@
       </c>
     </row>
     <row r="263" spans="1:22">
-      <c r="A263" s="5" t="s">
+      <c r="A263" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="B263" s="5" t="s">
+      <c r="B263" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C263" s="5" t="s">
+      <c r="C263" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D263" s="5" t="s">
+      <c r="D263" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E263" s="5"/>
+      <c r="E263" s="2"/>
       <c r="F263" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="G263" s="5"/>
-      <c r="H263" s="5"/>
-      <c r="I263" s="5"/>
-      <c r="J263" s="5" t="s">
+      <c r="G263" s="2"/>
+      <c r="H263" s="2"/>
+      <c r="I263" s="2"/>
+      <c r="J263" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K263" s="5"/>
+      <c r="K263" s="2"/>
       <c r="L263" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="M263" s="5" t="s">
+      <c r="M263" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="N263" s="5" t="s">
+      <c r="N263" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O263" s="5" t="s">
+      <c r="O263" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P263" s="5"/>
+      <c r="P263" s="2"/>
       <c r="Q263" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="R263" s="5"/>
-      <c r="S263" s="5"/>
-      <c r="T263" s="5"/>
-      <c r="U263" s="5" t="s">
+      <c r="R263" s="2"/>
+      <c r="S263" s="2"/>
+      <c r="T263" s="2"/>
+      <c r="U263" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V263" s="5"/>
+      <c r="V263" s="2"/>
     </row>
     <row r="264" spans="1:22">
       <c r="A264" s="5" t="s">
@@ -16781,7 +16781,7 @@
         <v>426</v>
       </c>
       <c r="L267" s="4"/>
-      <c r="M267" s="2" t="s">
+      <c r="M267" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N267" s="2" t="s">
@@ -16909,52 +16909,52 @@
       <c r="V269" s="5"/>
     </row>
     <row r="270" spans="1:22">
-      <c r="A270" s="5" t="s">
+      <c r="A270" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="B270" s="5" t="s">
+      <c r="B270" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C270" s="5" t="s">
+      <c r="C270" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D270" s="5" t="s">
+      <c r="D270" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E270" s="5"/>
+      <c r="E270" s="2"/>
       <c r="F270" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G270" s="5"/>
-      <c r="H270" s="5"/>
-      <c r="I270" s="5"/>
-      <c r="J270" s="5" t="s">
+      <c r="G270" s="2"/>
+      <c r="H270" s="2"/>
+      <c r="I270" s="2"/>
+      <c r="J270" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K270" s="5"/>
+      <c r="K270" s="2"/>
       <c r="L270" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="M270" s="5" t="s">
+      <c r="M270" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="N270" s="5" t="s">
+      <c r="N270" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O270" s="5" t="s">
+      <c r="O270" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P270" s="5"/>
+      <c r="P270" s="2"/>
       <c r="Q270" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="R270" s="5"/>
-      <c r="S270" s="5"/>
-      <c r="T270" s="5"/>
-      <c r="U270" s="5" t="s">
+      <c r="R270" s="2"/>
+      <c r="S270" s="2"/>
+      <c r="T270" s="2"/>
+      <c r="U270" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V270" s="5"/>
+      <c r="V270" s="2"/>
     </row>
     <row r="271" spans="1:22">
       <c r="A271" s="5" t="s">
@@ -17159,7 +17159,7 @@
         <v>433</v>
       </c>
       <c r="L274" s="4"/>
-      <c r="M274" s="2" t="s">
+      <c r="M274" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N274" s="2" t="s">
@@ -17287,52 +17287,52 @@
       <c r="V276" s="5"/>
     </row>
     <row r="277" spans="1:22">
-      <c r="A277" s="5" t="s">
+      <c r="A277" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="B277" s="5" t="s">
+      <c r="B277" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C277" s="5" t="s">
+      <c r="C277" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D277" s="5" t="s">
+      <c r="D277" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E277" s="5"/>
+      <c r="E277" s="2"/>
       <c r="F277" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="G277" s="5"/>
-      <c r="H277" s="5"/>
-      <c r="I277" s="5"/>
-      <c r="J277" s="5" t="s">
+      <c r="G277" s="2"/>
+      <c r="H277" s="2"/>
+      <c r="I277" s="2"/>
+      <c r="J277" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K277" s="5"/>
+      <c r="K277" s="2"/>
       <c r="L277" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="M277" s="5" t="s">
+      <c r="M277" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="N277" s="5" t="s">
+      <c r="N277" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O277" s="5" t="s">
+      <c r="O277" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P277" s="5"/>
+      <c r="P277" s="2"/>
       <c r="Q277" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="R277" s="5"/>
-      <c r="S277" s="5"/>
-      <c r="T277" s="5"/>
-      <c r="U277" s="5" t="s">
+      <c r="R277" s="2"/>
+      <c r="S277" s="2"/>
+      <c r="T277" s="2"/>
+      <c r="U277" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V277" s="5"/>
+      <c r="V277" s="2"/>
     </row>
     <row r="278" spans="1:22">
       <c r="A278" s="5" t="s">
@@ -17451,52 +17451,52 @@
       <c r="V279" s="5"/>
     </row>
     <row r="280" spans="1:22">
-      <c r="A280" s="5" t="s">
+      <c r="A280" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="B280" s="5" t="s">
+      <c r="B280" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C280" s="5" t="s">
+      <c r="C280" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D280" s="5" t="s">
+      <c r="D280" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E280" s="5"/>
+      <c r="E280" s="2"/>
       <c r="F280" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="G280" s="5"/>
-      <c r="H280" s="5"/>
-      <c r="I280" s="5"/>
-      <c r="J280" s="5" t="s">
+      <c r="G280" s="2"/>
+      <c r="H280" s="2"/>
+      <c r="I280" s="2"/>
+      <c r="J280" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K280" s="5"/>
+      <c r="K280" s="2"/>
       <c r="L280" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="M280" s="5" t="s">
+      <c r="M280" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N280" s="5" t="s">
+      <c r="N280" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O280" s="5" t="s">
+      <c r="O280" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P280" s="5"/>
+      <c r="P280" s="2"/>
       <c r="Q280" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="R280" s="5"/>
-      <c r="S280" s="5"/>
-      <c r="T280" s="5"/>
-      <c r="U280" s="5" t="s">
+      <c r="R280" s="2"/>
+      <c r="S280" s="2"/>
+      <c r="T280" s="2"/>
+      <c r="U280" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V280" s="5"/>
+      <c r="V280" s="2"/>
     </row>
     <row r="281" spans="1:22">
       <c r="A281" s="5" t="s">
@@ -17639,7 +17639,7 @@
       </c>
       <c r="K283" s="2"/>
       <c r="L283" s="4"/>
-      <c r="M283" s="2" t="s">
+      <c r="M283" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N283" s="2" t="s">
@@ -17951,7 +17951,7 @@
         <v>426</v>
       </c>
       <c r="L289" s="4"/>
-      <c r="M289" s="2" t="s">
+      <c r="M289" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N289" s="2" t="s">
@@ -18099,7 +18099,7 @@
       </c>
       <c r="K292" s="2"/>
       <c r="L292" s="4"/>
-      <c r="M292" s="2" t="s">
+      <c r="M292" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N292" s="2" t="s">
@@ -18389,48 +18389,48 @@
       <c r="V297" s="5"/>
     </row>
     <row r="298" spans="1:22">
-      <c r="A298" s="5" t="s">
+      <c r="A298" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="B298" s="5" t="s">
+      <c r="B298" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C298" s="5"/>
-      <c r="D298" s="5" t="s">
+      <c r="C298" s="2"/>
+      <c r="D298" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E298" s="5"/>
+      <c r="E298" s="2"/>
       <c r="F298" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="G298" s="5"/>
-      <c r="H298" s="5"/>
-      <c r="I298" s="5"/>
-      <c r="J298" s="5" t="s">
+      <c r="G298" s="2"/>
+      <c r="H298" s="2"/>
+      <c r="I298" s="2"/>
+      <c r="J298" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K298" s="5"/>
+      <c r="K298" s="2"/>
       <c r="L298" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="M298" s="5" t="s">
+      <c r="M298" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="N298" s="5"/>
-      <c r="O298" s="5" t="s">
+      <c r="N298" s="2"/>
+      <c r="O298" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P298" s="5"/>
+      <c r="P298" s="2"/>
       <c r="Q298" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="R298" s="5"/>
-      <c r="S298" s="5"/>
-      <c r="T298" s="5"/>
-      <c r="U298" s="5" t="s">
+      <c r="R298" s="2"/>
+      <c r="S298" s="2"/>
+      <c r="T298" s="2"/>
+      <c r="U298" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V298" s="5"/>
+      <c r="V298" s="2"/>
     </row>
     <row r="299" spans="1:22">
       <c r="A299" s="5" t="s">
